--- a/ModelData/R_square_BeforeCI.xlsx
+++ b/ModelData/R_square_BeforeCI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/312620008/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/delfayou/Downloads/CS846/CS846_Project/ModelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F87082E3-616B-A646-B09E-49FEAC832FF7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375C394-C89F-814F-B129-6BD02E706D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" xr2:uid="{E39A3117-B520-0F4D-9684-67189EA81F71}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
-    <t>RsquareProject</t>
-  </si>
-  <si>
-    <t>RsquareMode</t>
-  </si>
-  <si>
-    <t>Rsquarelist</t>
-  </si>
-  <si>
-    <t>RsquareDifference</t>
-  </si>
-  <si>
-    <t>RsquareAdjusted</t>
-  </si>
-  <si>
     <t>yiisoft/yii</t>
   </si>
   <si>
@@ -223,6 +208,21 @@
   </si>
   <si>
     <t>ipython/ipython</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Rsquared</t>
+  </si>
+  <si>
+    <t>Rsquare Corrected</t>
+  </si>
+  <si>
+    <t>Rsquared OPTIMISM</t>
   </si>
 </sst>
 </file>
@@ -578,34 +578,34 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.402823981</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>7.4046747999999996E-2</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0.48374135499999998</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>5.7127570000000003E-2</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0.19565987200000001</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>5.7083892999999997E-2</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1.1532255999999999E-2</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0.99830407499999996</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0.63978716499999999</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.57553523299999998</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0.133912371</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.115186488</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0.27336695100000002</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>9.1367170000000008E-3</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0.34380972500000001</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.13629240400000001</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0.99067676400000004</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>5.5553665000000002E-2</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0.16120025199999999</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.229899354</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>8.0111914000000006E-2</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0.17729266799999999</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0.549085508</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0.98279907899999996</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.99327609100000003</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.16225231700000001</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.36559664200000003</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0.97661523800000005</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0.76342624100000001</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0.41582280799999999</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1.8744739999999999E-2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.78987803700000003</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.34632228300000001</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0.58718962200000002</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0.99426102199999999</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0.96543481099999995</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0.998681123</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0.15360257699999999</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>4.6775731000000001E-2</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.11031911699999999</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.99483715800000005</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0.12162007599999999</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>5.4099323999999997E-2</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0.466300724</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0.70302811499999995</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0.35641667199999999</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>7.3968249E-2</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0.33139601600000002</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0.62538763100000005</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0.72311499499999998</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0.64007367599999998</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0.94890118499999998</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0.99446993400000006</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0.20031032700000001</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>8.5933784999999999E-2</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0.238801706</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>8.1631515000000002E-2</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0.26281978700000003</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0.95054488599999998</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>9.8161026999999998E-2</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0.174042855</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>3.4543367999999998E-2</v>
